--- a/benchmarks/memory_comparison.xlsx
+++ b/benchmarks/memory_comparison.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -526,14 +526,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -566,14 +566,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -606,14 +606,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>10000</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -686,14 +686,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>10000</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
@@ -726,14 +726,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>diag</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -766,14 +766,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -806,11 +806,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>spherical</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -886,14 +886,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tied</t>
+          <t>diag</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
@@ -926,28 +926,988 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>50</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>diag</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>tied</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>20</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>100000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E35" t="n">
         <v>20</v>
       </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>cpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TorchGaussianMixture.fit</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Peak Memory (MB)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>cpu</t>
         </is>
